--- a/DetalleXDocente.xlsx
+++ b/DetalleXDocente.xlsx
@@ -5153,25 +5153,25 @@
         <v>21</v>
       </c>
       <c r="E126">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G126">
-        <v>52.38</v>
+        <v>57.14</v>
       </c>
       <c r="H126">
-        <v>47.62</v>
+        <v>42.86</v>
       </c>
       <c r="I126">
         <v>8</v>
       </c>
       <c r="J126">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K126">
-        <v>47.62</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5188,25 +5188,25 @@
         <v>35</v>
       </c>
       <c r="E127">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G127">
-        <v>85.70999999999999</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="H127">
-        <v>14.29</v>
+        <v>11.43</v>
       </c>
       <c r="I127">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J127">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K127">
-        <v>14.29</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -5258,25 +5258,25 @@
         <v>34</v>
       </c>
       <c r="E129">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F129">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G129">
-        <v>61.76</v>
+        <v>70.59</v>
       </c>
       <c r="H129">
-        <v>38.24</v>
+        <v>29.41</v>
       </c>
       <c r="I129">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="J129">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K129">
-        <v>38.24</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5293,25 +5293,25 @@
         <v>31</v>
       </c>
       <c r="E130">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F130">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G130">
-        <v>48.39</v>
+        <v>54.84</v>
       </c>
       <c r="H130">
-        <v>51.61</v>
+        <v>45.16</v>
       </c>
       <c r="I130">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="J130">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K130">
-        <v>51.61</v>
+        <v>45.16</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5363,25 +5363,25 @@
         <v>43</v>
       </c>
       <c r="E132">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F132">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G132">
-        <v>58.14</v>
+        <v>60.47</v>
       </c>
       <c r="H132">
-        <v>41.86</v>
+        <v>39.53</v>
       </c>
       <c r="I132">
         <v>7.4</v>
       </c>
       <c r="J132">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K132">
-        <v>41.86</v>
+        <v>39.53</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5398,25 +5398,25 @@
         <v>43</v>
       </c>
       <c r="E133">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F133">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G133">
-        <v>60.47</v>
+        <v>62.79</v>
       </c>
       <c r="H133">
-        <v>39.53</v>
+        <v>37.21</v>
       </c>
       <c r="I133">
         <v>7.4</v>
       </c>
       <c r="J133">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K133">
-        <v>39.53</v>
+        <v>37.21</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5433,25 +5433,25 @@
         <v>24</v>
       </c>
       <c r="E134">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G134">
-        <v>75</v>
+        <v>79.17</v>
       </c>
       <c r="H134">
-        <v>25</v>
+        <v>20.83</v>
       </c>
       <c r="I134">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="J134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K134">
-        <v>25</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5818,25 +5818,25 @@
         <v>43</v>
       </c>
       <c r="E145">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F145">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G145">
-        <v>86.05</v>
+        <v>88.37</v>
       </c>
       <c r="H145">
-        <v>13.95</v>
+        <v>11.63</v>
       </c>
       <c r="I145">
         <v>8.6</v>
       </c>
       <c r="J145">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K145">
-        <v>13.95</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -6448,25 +6448,25 @@
         <v>36</v>
       </c>
       <c r="E163">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F163">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G163">
-        <v>19.44</v>
+        <v>33.33</v>
       </c>
       <c r="H163">
-        <v>80.56</v>
+        <v>66.67</v>
       </c>
       <c r="I163">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="J163">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K163">
-        <v>80.56</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6483,25 +6483,25 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F164">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G164">
-        <v>43.59</v>
+        <v>69.23</v>
       </c>
       <c r="H164">
-        <v>56.41</v>
+        <v>30.77</v>
       </c>
       <c r="I164">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="J164">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K164">
-        <v>56.41</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6518,25 +6518,25 @@
         <v>36</v>
       </c>
       <c r="E165">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F165">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G165">
-        <v>41.67</v>
+        <v>52.78</v>
       </c>
       <c r="H165">
-        <v>58.33</v>
+        <v>47.22</v>
       </c>
       <c r="I165">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="J165">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K165">
-        <v>58.33</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6553,25 +6553,25 @@
         <v>32</v>
       </c>
       <c r="E166">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F166">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G166">
-        <v>40.63</v>
+        <v>53.13</v>
       </c>
       <c r="H166">
-        <v>59.38</v>
+        <v>46.88</v>
       </c>
       <c r="I166">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J166">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K166">
-        <v>59.38</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="167" spans="1:11">

--- a/DetalleXDocente.xlsx
+++ b/DetalleXDocente.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="129">
   <si>
     <t>Docente</t>
   </si>
@@ -277,6 +277,9 @@
     <t>3ALCV</t>
   </si>
   <si>
+    <t>1AM</t>
+  </si>
+  <si>
     <t>1BM</t>
   </si>
   <si>
@@ -293,9 +296,6 @@
   </si>
   <si>
     <t>5ALCM</t>
-  </si>
-  <si>
-    <t>1AM</t>
   </si>
   <si>
     <t>TECNOLOGÍAS DE LA INFORMACIÓN Y LA COMUNICACIÓN</t>
@@ -758,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K203"/>
+  <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1618,25 +1618,25 @@
         <v>33</v>
       </c>
       <c r="E25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25">
-        <v>39.39</v>
+        <v>42.42</v>
       </c>
       <c r="H25">
-        <v>60.61</v>
+        <v>57.58</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="J25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>60.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1653,25 +1653,25 @@
         <v>21</v>
       </c>
       <c r="E26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>57.14</v>
+        <v>61.9</v>
       </c>
       <c r="H26">
-        <v>42.86</v>
+        <v>38.1</v>
       </c>
       <c r="I26">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="J26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>42.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1688,25 +1688,25 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>64.86</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="H27">
-        <v>35.14</v>
+        <v>32.43</v>
       </c>
       <c r="I27">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="J27">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>35.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2875,28 +2875,28 @@
         <v>109</v>
       </c>
       <c r="D61">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E61">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G61">
-        <v>74.19</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H61">
-        <v>25.81</v>
+        <v>17.65</v>
       </c>
       <c r="I61">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="J61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K61">
-        <v>25.81</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2910,28 +2910,28 @@
         <v>109</v>
       </c>
       <c r="D62">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E62">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G62">
-        <v>91.67</v>
+        <v>74.19</v>
       </c>
       <c r="H62">
-        <v>8.33</v>
+        <v>25.81</v>
       </c>
       <c r="I62">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K62">
-        <v>8.33</v>
+        <v>25.81</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2945,28 +2945,28 @@
         <v>109</v>
       </c>
       <c r="D63">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E63">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F63">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G63">
-        <v>74.42</v>
+        <v>91.67</v>
       </c>
       <c r="H63">
-        <v>25.58</v>
+        <v>8.33</v>
       </c>
       <c r="I63">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J63">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K63">
-        <v>25.58</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2983,25 +2983,25 @@
         <v>43</v>
       </c>
       <c r="E64">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G64">
-        <v>81.40000000000001</v>
+        <v>74.42</v>
       </c>
       <c r="H64">
-        <v>18.6</v>
+        <v>25.58</v>
       </c>
       <c r="I64">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J64">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K64">
-        <v>18.6</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3015,63 +3015,63 @@
         <v>109</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G65">
-        <v>83.33</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H65">
-        <v>16.67</v>
+        <v>18.6</v>
       </c>
       <c r="I65">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="J65">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K65">
-        <v>16.67</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D66">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E66">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F66">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G66">
-        <v>62.5</v>
+        <v>83.33</v>
       </c>
       <c r="H66">
-        <v>37.5</v>
+        <v>16.67</v>
       </c>
       <c r="I66">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J66">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K66">
-        <v>37.5</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3079,34 +3079,34 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>114</v>
       </c>
       <c r="D67">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E67">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F67">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G67">
-        <v>70.45</v>
+        <v>62.5</v>
       </c>
       <c r="H67">
-        <v>29.55</v>
+        <v>37.5</v>
       </c>
       <c r="I67">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J67">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K67">
-        <v>29.55</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3114,34 +3114,34 @@
         <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
         <v>114</v>
       </c>
       <c r="D68">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E68">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G68">
-        <v>86.05</v>
+        <v>70.45</v>
       </c>
       <c r="H68">
-        <v>13.95</v>
+        <v>29.55</v>
       </c>
       <c r="I68">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J68">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K68">
-        <v>13.95</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3149,34 +3149,34 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
         <v>114</v>
       </c>
       <c r="D69">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E69">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G69">
-        <v>75.86</v>
+        <v>86.05</v>
       </c>
       <c r="H69">
-        <v>24.14</v>
+        <v>13.95</v>
       </c>
       <c r="I69">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K69">
-        <v>24.14</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3184,69 +3184,69 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
         <v>114</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E70">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G70">
-        <v>61.9</v>
+        <v>75.86</v>
       </c>
       <c r="H70">
-        <v>38.1</v>
+        <v>24.14</v>
       </c>
       <c r="I70">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="J70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K70">
-        <v>38.1</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D71">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E71">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G71">
-        <v>86.11</v>
+        <v>61.9</v>
       </c>
       <c r="H71">
-        <v>13.89</v>
+        <v>38.1</v>
       </c>
       <c r="I71">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K71">
-        <v>13.89</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3260,28 +3260,28 @@
         <v>102</v>
       </c>
       <c r="D72">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E72">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F72">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G72">
-        <v>67.44</v>
+        <v>86.11</v>
       </c>
       <c r="H72">
-        <v>32.56</v>
+        <v>13.89</v>
       </c>
       <c r="I72">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J72">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K72">
-        <v>32.56</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3298,25 +3298,25 @@
         <v>43</v>
       </c>
       <c r="E73">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F73">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G73">
-        <v>83.72</v>
+        <v>67.44</v>
       </c>
       <c r="H73">
-        <v>16.28</v>
+        <v>32.56</v>
       </c>
       <c r="I73">
         <v>6.8</v>
       </c>
       <c r="J73">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K73">
-        <v>16.28</v>
+        <v>32.56</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3330,63 +3330,63 @@
         <v>102</v>
       </c>
       <c r="D74">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E74">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G74">
-        <v>91.67</v>
+        <v>83.72</v>
       </c>
       <c r="H74">
-        <v>8.33</v>
+        <v>16.28</v>
       </c>
       <c r="I74">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K74">
-        <v>8.33</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D75">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E75">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>71.43000000000001</v>
+        <v>91.67</v>
       </c>
       <c r="H75">
-        <v>28.57</v>
+        <v>8.33</v>
       </c>
       <c r="I75">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="J75">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <v>28.57</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3397,31 +3397,31 @@
         <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D76">
         <v>28</v>
       </c>
       <c r="E76">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G76">
-        <v>64.29000000000001</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H76">
-        <v>35.71</v>
+        <v>28.57</v>
       </c>
       <c r="I76">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K76">
-        <v>3.57</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3429,34 +3429,34 @@
         <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D77">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G77">
-        <v>63.64</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="H77">
-        <v>36.36</v>
+        <v>35.71</v>
       </c>
       <c r="I77">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>15.15</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3464,34 +3464,34 @@
         <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
         <v>101</v>
       </c>
       <c r="D78">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E78">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G78">
-        <v>77.42</v>
+        <v>63.64</v>
       </c>
       <c r="H78">
-        <v>22.58</v>
+        <v>36.36</v>
       </c>
       <c r="I78">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="J78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K78">
-        <v>9.68</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3499,34 +3499,34 @@
         <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
         <v>101</v>
       </c>
       <c r="D79">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F79">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G79">
-        <v>47.62</v>
+        <v>77.42</v>
       </c>
       <c r="H79">
-        <v>52.38</v>
+        <v>22.58</v>
       </c>
       <c r="I79">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K79">
-        <v>4.76</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3534,34 +3534,34 @@
         <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s">
         <v>101</v>
       </c>
       <c r="D80">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E80">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G80">
-        <v>82.86</v>
+        <v>47.62</v>
       </c>
       <c r="H80">
-        <v>17.14</v>
+        <v>52.38</v>
       </c>
       <c r="I80">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3569,34 +3569,34 @@
         <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s">
         <v>101</v>
       </c>
       <c r="D81">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E81">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F81">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G81">
-        <v>57.14</v>
+        <v>82.86</v>
       </c>
       <c r="H81">
-        <v>42.86</v>
+        <v>17.14</v>
       </c>
       <c r="I81">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="J81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3604,69 +3604,69 @@
         <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D82">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G82">
-        <v>96.77</v>
+        <v>57.14</v>
       </c>
       <c r="H82">
-        <v>3.23</v>
+        <v>42.86</v>
       </c>
       <c r="I82">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D83">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E83">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F83">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>74.29000000000001</v>
+        <v>96.77</v>
       </c>
       <c r="H83">
-        <v>25.71</v>
+        <v>3.23</v>
       </c>
       <c r="I83">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="J83">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>25.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3674,34 +3674,34 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
         <v>118</v>
       </c>
       <c r="D84">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E84">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G84">
-        <v>61.54</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H84">
-        <v>38.46</v>
+        <v>14.29</v>
       </c>
       <c r="I84">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="J84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>38.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3709,34 +3709,34 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
         <v>118</v>
       </c>
       <c r="D85">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G85">
-        <v>95.65000000000001</v>
+        <v>69.23</v>
       </c>
       <c r="H85">
-        <v>4.35</v>
+        <v>30.77</v>
       </c>
       <c r="I85">
-        <v>8.1</v>
+        <v>6.2</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
       <c r="K85">
-        <v>4.35</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3744,34 +3744,34 @@
         <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
         <v>118</v>
       </c>
       <c r="D86">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E86">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F86">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>53.13</v>
+        <v>100</v>
       </c>
       <c r="H86">
-        <v>46.88</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>8</v>
       </c>
       <c r="J86">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>46.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3779,34 +3779,34 @@
         <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C87" t="s">
         <v>118</v>
       </c>
       <c r="D87">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E87">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G87">
-        <v>79.41</v>
+        <v>62.5</v>
       </c>
       <c r="H87">
-        <v>20.59</v>
+        <v>37.5</v>
       </c>
       <c r="I87">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
       <c r="J87">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K87">
-        <v>20.59</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3814,69 +3814,69 @@
         <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
         <v>118</v>
       </c>
       <c r="D88">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E88">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>72.22</v>
+        <v>94.12</v>
       </c>
       <c r="H88">
-        <v>27.78</v>
+        <v>5.88</v>
       </c>
       <c r="I88">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="J88">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>27.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D89">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E89">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F89">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G89">
-        <v>64.52</v>
+        <v>75</v>
       </c>
       <c r="H89">
-        <v>35.48</v>
+        <v>25</v>
       </c>
       <c r="I89">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="J89">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K89">
-        <v>35.48</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3884,34 +3884,34 @@
         <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
         <v>106</v>
       </c>
       <c r="D90">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E90">
+        <v>20</v>
+      </c>
+      <c r="F90">
         <v>11</v>
       </c>
-      <c r="F90">
-        <v>10</v>
-      </c>
       <c r="G90">
-        <v>52.38</v>
+        <v>64.52</v>
       </c>
       <c r="H90">
-        <v>47.62</v>
+        <v>35.48</v>
       </c>
       <c r="I90">
-        <v>9.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="J90">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K90">
-        <v>47.62</v>
+        <v>35.48</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3919,34 +3919,34 @@
         <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
       </c>
       <c r="D91">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E91">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G91">
-        <v>74.29000000000001</v>
+        <v>52.38</v>
       </c>
       <c r="H91">
-        <v>25.71</v>
+        <v>47.62</v>
       </c>
       <c r="I91">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J91">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K91">
-        <v>25.71</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3954,69 +3954,69 @@
         <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D92">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E92">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F92">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G92">
-        <v>60.61</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="H92">
-        <v>39.39</v>
+        <v>25.71</v>
       </c>
       <c r="I92">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="J92">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K92">
-        <v>39.39</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D93">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E93">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F93">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G93">
-        <v>73.53</v>
+        <v>60.61</v>
       </c>
       <c r="H93">
-        <v>26.47</v>
+        <v>39.39</v>
       </c>
       <c r="I93">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J93">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K93">
-        <v>26.47</v>
+        <v>39.39</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4030,28 +4030,28 @@
         <v>94</v>
       </c>
       <c r="D94">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E94">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F94">
         <v>9</v>
       </c>
       <c r="G94">
-        <v>70.97</v>
+        <v>73.53</v>
       </c>
       <c r="H94">
-        <v>29.03</v>
+        <v>26.47</v>
       </c>
       <c r="I94">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J94">
         <v>9</v>
       </c>
       <c r="K94">
-        <v>29.03</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4065,28 +4065,28 @@
         <v>94</v>
       </c>
       <c r="D95">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E95">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G95">
-        <v>80.56</v>
+        <v>70.97</v>
       </c>
       <c r="H95">
-        <v>19.44</v>
+        <v>29.03</v>
       </c>
       <c r="I95">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K95">
-        <v>19.44</v>
+        <v>29.03</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4100,28 +4100,28 @@
         <v>94</v>
       </c>
       <c r="D96">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E96">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F96">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G96">
-        <v>74.42</v>
+        <v>80.56</v>
       </c>
       <c r="H96">
-        <v>25.58</v>
+        <v>19.44</v>
       </c>
       <c r="I96">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="J96">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K96">
-        <v>25.58</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4138,25 +4138,25 @@
         <v>43</v>
       </c>
       <c r="E97">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G97">
-        <v>83.72</v>
+        <v>74.42</v>
       </c>
       <c r="H97">
-        <v>16.28</v>
+        <v>25.58</v>
       </c>
       <c r="I97">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="J97">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K97">
-        <v>16.28</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4170,63 +4170,63 @@
         <v>94</v>
       </c>
       <c r="D98">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E98">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G98">
-        <v>95.83</v>
+        <v>83.72</v>
       </c>
       <c r="H98">
-        <v>4.17</v>
+        <v>16.28</v>
       </c>
       <c r="I98">
         <v>7.3</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K98">
-        <v>4.17</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C99" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D99">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E99">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F99">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>68.42</v>
+        <v>95.83</v>
       </c>
       <c r="H99">
-        <v>31.58</v>
+        <v>4.17</v>
       </c>
       <c r="I99">
-        <v>9.1</v>
+        <v>7.3</v>
       </c>
       <c r="J99">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>31.58</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4234,34 +4234,34 @@
         <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C100" t="s">
         <v>117</v>
       </c>
       <c r="D100">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E100">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G100">
-        <v>82.86</v>
+        <v>68.42</v>
       </c>
       <c r="H100">
-        <v>17.14</v>
+        <v>31.58</v>
       </c>
       <c r="I100">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="J100">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K100">
-        <v>17.14</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4269,34 +4269,34 @@
         <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
         <v>117</v>
       </c>
       <c r="D101">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E101">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G101">
-        <v>91.3</v>
+        <v>82.86</v>
       </c>
       <c r="H101">
-        <v>8.699999999999999</v>
+        <v>17.14</v>
       </c>
       <c r="I101">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J101">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K101">
-        <v>8.699999999999999</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4304,34 +4304,34 @@
         <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C102" t="s">
         <v>117</v>
       </c>
       <c r="D102">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E102">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F102">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G102">
-        <v>50</v>
+        <v>91.3</v>
       </c>
       <c r="H102">
-        <v>50</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I102">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="J102">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K102">
-        <v>50</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4339,34 +4339,34 @@
         <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C103" t="s">
         <v>117</v>
       </c>
       <c r="D103">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E103">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F103">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G103">
-        <v>82.34999999999999</v>
+        <v>50</v>
       </c>
       <c r="H103">
-        <v>17.65</v>
+        <v>50</v>
       </c>
       <c r="I103">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J103">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K103">
-        <v>17.65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4374,69 +4374,69 @@
         <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C104" t="s">
         <v>117</v>
       </c>
       <c r="D104">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E104">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G104">
-        <v>69.7</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H104">
-        <v>30.3</v>
+        <v>17.65</v>
       </c>
       <c r="I104">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J104">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K104">
-        <v>30.3</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" t="s">
+        <v>117</v>
+      </c>
+      <c r="D105">
         <v>33</v>
       </c>
-      <c r="B105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105" t="s">
-        <v>119</v>
-      </c>
-      <c r="D105">
-        <v>36</v>
-      </c>
       <c r="E105">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F105">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G105">
-        <v>69.44</v>
+        <v>69.7</v>
       </c>
       <c r="H105">
-        <v>30.56</v>
+        <v>30.3</v>
       </c>
       <c r="I105">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J105">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K105">
-        <v>30.56</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4444,34 +4444,34 @@
         <v>33</v>
       </c>
       <c r="B106" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D106">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E106">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G106">
-        <v>91.3</v>
+        <v>69.44</v>
       </c>
       <c r="H106">
-        <v>8.699999999999999</v>
+        <v>30.56</v>
       </c>
       <c r="I106">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4482,66 +4482,66 @@
         <v>84</v>
       </c>
       <c r="C107" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D107">
         <v>23</v>
       </c>
       <c r="E107">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107">
-        <v>86.95999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="H107">
-        <v>13.04</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I107">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D108">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E108">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G108">
-        <v>73.68000000000001</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="H108">
-        <v>26.32</v>
+        <v>13.04</v>
       </c>
       <c r="I108">
-        <v>7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4549,28 +4549,28 @@
         <v>34</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C109" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D109">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E109">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F109">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G109">
-        <v>60.61</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="H109">
-        <v>39.39</v>
+        <v>26.32</v>
       </c>
       <c r="I109">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -4587,25 +4587,25 @@
         <v>83</v>
       </c>
       <c r="C110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D110">
         <v>33</v>
       </c>
       <c r="E110">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F110">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G110">
-        <v>57.58</v>
+        <v>60.61</v>
       </c>
       <c r="H110">
-        <v>42.42</v>
+        <v>39.39</v>
       </c>
       <c r="I110">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -4616,37 +4616,37 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C111" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D111">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E111">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F111">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G111">
-        <v>50</v>
+        <v>57.58</v>
       </c>
       <c r="H111">
-        <v>50</v>
+        <v>42.42</v>
       </c>
       <c r="I111">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="J111">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4654,34 +4654,34 @@
         <v>35</v>
       </c>
       <c r="B112" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C112" t="s">
         <v>116</v>
       </c>
       <c r="D112">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E112">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F112">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G112">
-        <v>53.49</v>
+        <v>50</v>
       </c>
       <c r="H112">
-        <v>46.51</v>
+        <v>50</v>
       </c>
       <c r="I112">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J112">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K112">
-        <v>46.51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4689,69 +4689,69 @@
         <v>35</v>
       </c>
       <c r="B113" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C113" t="s">
         <v>116</v>
       </c>
       <c r="D113">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E113">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G113">
-        <v>52.38</v>
+        <v>53.49</v>
       </c>
       <c r="H113">
-        <v>47.62</v>
+        <v>46.51</v>
       </c>
       <c r="I113">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="J113">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K113">
-        <v>47.62</v>
+        <v>46.51</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B114" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C114" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D114">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E114">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F114">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G114">
-        <v>86.11</v>
+        <v>52.38</v>
       </c>
       <c r="H114">
-        <v>13.89</v>
+        <v>47.62</v>
       </c>
       <c r="I114">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4759,28 +4759,28 @@
         <v>36</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C115" t="s">
         <v>123</v>
       </c>
       <c r="D115">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E115">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G115">
-        <v>82.86</v>
+        <v>86.11</v>
       </c>
       <c r="H115">
-        <v>17.14</v>
+        <v>13.89</v>
       </c>
       <c r="I115">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -4791,37 +4791,37 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B116" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C116" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D116">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E116">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F116">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G116">
-        <v>62.5</v>
+        <v>82.86</v>
       </c>
       <c r="H116">
-        <v>37.5</v>
+        <v>17.14</v>
       </c>
       <c r="I116">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="J116">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>37.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4829,34 +4829,34 @@
         <v>37</v>
       </c>
       <c r="B117" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C117" t="s">
         <v>106</v>
       </c>
       <c r="D117">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E117">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F117">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G117">
-        <v>77.14</v>
+        <v>62.5</v>
       </c>
       <c r="H117">
-        <v>22.86</v>
+        <v>37.5</v>
       </c>
       <c r="I117">
         <v>10</v>
       </c>
       <c r="J117">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K117">
-        <v>22.86</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4864,34 +4864,34 @@
         <v>37</v>
       </c>
       <c r="B118" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C118" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D118">
         <v>35</v>
       </c>
       <c r="E118">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G118">
-        <v>71.43000000000001</v>
+        <v>77.14</v>
       </c>
       <c r="H118">
-        <v>28.57</v>
+        <v>22.86</v>
       </c>
       <c r="I118">
         <v>10</v>
       </c>
       <c r="J118">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K118">
-        <v>28.57</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4899,69 +4899,69 @@
         <v>37</v>
       </c>
       <c r="B119" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C119" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D119">
         <v>35</v>
       </c>
       <c r="E119">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F119">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G119">
-        <v>82.86</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H119">
-        <v>17.14</v>
+        <v>28.57</v>
       </c>
       <c r="I119">
         <v>10</v>
       </c>
       <c r="J119">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K119">
-        <v>17.14</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B120" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C120" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D120">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E120">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F120">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G120">
-        <v>70.97</v>
+        <v>82.86</v>
       </c>
       <c r="H120">
-        <v>29.03</v>
+        <v>17.14</v>
       </c>
       <c r="I120">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="J120">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K120">
-        <v>29.03</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4975,28 +4975,28 @@
         <v>116</v>
       </c>
       <c r="D121">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E121">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F121">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G121">
-        <v>80.56</v>
+        <v>70.97</v>
       </c>
       <c r="H121">
-        <v>19.44</v>
+        <v>29.03</v>
       </c>
       <c r="I121">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="J121">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K121">
-        <v>19.44</v>
+        <v>29.03</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -5010,28 +5010,28 @@
         <v>116</v>
       </c>
       <c r="D122">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E122">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F122">
         <v>7</v>
       </c>
       <c r="G122">
-        <v>83.72</v>
+        <v>80.56</v>
       </c>
       <c r="H122">
-        <v>16.28</v>
+        <v>19.44</v>
       </c>
       <c r="I122">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="J122">
         <v>7</v>
       </c>
       <c r="K122">
-        <v>16.28</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -5048,30 +5048,30 @@
         <v>43</v>
       </c>
       <c r="E123">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F123">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G123">
-        <v>74.42</v>
+        <v>83.72</v>
       </c>
       <c r="H123">
-        <v>25.58</v>
+        <v>16.28</v>
       </c>
       <c r="I123">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J123">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K123">
-        <v>25.58</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B124" t="s">
         <v>91</v>
@@ -5080,63 +5080,63 @@
         <v>116</v>
       </c>
       <c r="D124">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E124">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G124">
-        <v>100</v>
+        <v>74.42</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>25.58</v>
       </c>
       <c r="I124">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C125" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D125">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E125">
         <v>24</v>
       </c>
       <c r="F125">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>77.42</v>
+        <v>100</v>
       </c>
       <c r="H125">
-        <v>22.58</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J125">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>22.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -5144,34 +5144,34 @@
         <v>40</v>
       </c>
       <c r="B126" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C126" t="s">
         <v>124</v>
       </c>
       <c r="D126">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E126">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F126">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G126">
-        <v>57.14</v>
+        <v>77.42</v>
       </c>
       <c r="H126">
-        <v>42.86</v>
+        <v>22.58</v>
       </c>
       <c r="I126">
         <v>8</v>
       </c>
       <c r="J126">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K126">
-        <v>42.86</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5179,34 +5179,34 @@
         <v>40</v>
       </c>
       <c r="B127" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C127" t="s">
         <v>124</v>
       </c>
       <c r="D127">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E127">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F127">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G127">
-        <v>88.56999999999999</v>
+        <v>57.14</v>
       </c>
       <c r="H127">
-        <v>11.43</v>
+        <v>42.86</v>
       </c>
       <c r="I127">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="J127">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K127">
-        <v>5.71</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -5214,69 +5214,69 @@
         <v>40</v>
       </c>
       <c r="B128" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C128" t="s">
         <v>124</v>
       </c>
       <c r="D128">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E128">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F128">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G128">
-        <v>66.67</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="H128">
-        <v>33.33</v>
+        <v>11.43</v>
       </c>
       <c r="I128">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J128">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K128">
-        <v>33.33</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B129" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C129" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D129">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E129">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F129">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G129">
-        <v>70.59</v>
+        <v>66.67</v>
       </c>
       <c r="H129">
-        <v>29.41</v>
+        <v>33.33</v>
       </c>
       <c r="I129">
         <v>7.8</v>
       </c>
       <c r="J129">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K129">
-        <v>29.41</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5290,28 +5290,28 @@
         <v>114</v>
       </c>
       <c r="D130">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E130">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F130">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G130">
-        <v>54.84</v>
+        <v>70.59</v>
       </c>
       <c r="H130">
-        <v>45.16</v>
+        <v>29.41</v>
       </c>
       <c r="I130">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="J130">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K130">
-        <v>45.16</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5325,28 +5325,28 @@
         <v>114</v>
       </c>
       <c r="D131">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E131">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F131">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G131">
-        <v>69.44</v>
+        <v>58.06</v>
       </c>
       <c r="H131">
-        <v>30.56</v>
+        <v>41.94</v>
       </c>
       <c r="I131">
-        <v>8.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="J131">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K131">
-        <v>30.56</v>
+        <v>41.94</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5360,28 +5360,28 @@
         <v>114</v>
       </c>
       <c r="D132">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E132">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F132">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G132">
-        <v>60.47</v>
+        <v>69.44</v>
       </c>
       <c r="H132">
-        <v>39.53</v>
+        <v>30.56</v>
       </c>
       <c r="I132">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J132">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K132">
-        <v>39.53</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5398,25 +5398,25 @@
         <v>43</v>
       </c>
       <c r="E133">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F133">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G133">
-        <v>62.79</v>
+        <v>60.47</v>
       </c>
       <c r="H133">
-        <v>37.21</v>
+        <v>39.53</v>
       </c>
       <c r="I133">
         <v>7.4</v>
       </c>
       <c r="J133">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K133">
-        <v>37.21</v>
+        <v>39.53</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5430,28 +5430,28 @@
         <v>114</v>
       </c>
       <c r="D134">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E134">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F134">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G134">
-        <v>79.17</v>
+        <v>62.79</v>
       </c>
       <c r="H134">
-        <v>20.83</v>
+        <v>37.21</v>
       </c>
       <c r="I134">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="J134">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K134">
-        <v>20.83</v>
+        <v>37.21</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5459,69 +5459,69 @@
         <v>41</v>
       </c>
       <c r="B135" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C135" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D135">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E135">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F135">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G135">
-        <v>72.22</v>
+        <v>79.17</v>
       </c>
       <c r="H135">
-        <v>27.78</v>
+        <v>20.83</v>
       </c>
       <c r="I135">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="J135">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K135">
-        <v>27.78</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B136" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C136" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D136">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E136">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F136">
         <v>5</v>
       </c>
       <c r="G136">
-        <v>85.29000000000001</v>
+        <v>86.11</v>
       </c>
       <c r="H136">
-        <v>14.71</v>
+        <v>13.89</v>
       </c>
       <c r="I136">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J136">
         <v>5</v>
       </c>
       <c r="K136">
-        <v>14.71</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5529,34 +5529,34 @@
         <v>42</v>
       </c>
       <c r="B137" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C137" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D137">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E137">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F137">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G137">
-        <v>71.05</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="H137">
-        <v>28.95</v>
+        <v>14.71</v>
       </c>
       <c r="I137">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="J137">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K137">
-        <v>28.95</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5564,34 +5564,34 @@
         <v>42</v>
       </c>
       <c r="B138" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C138" t="s">
         <v>111</v>
       </c>
       <c r="D138">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E138">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F138">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G138">
-        <v>85.70999999999999</v>
+        <v>71.05</v>
       </c>
       <c r="H138">
-        <v>14.29</v>
+        <v>28.95</v>
       </c>
       <c r="I138">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="J138">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K138">
-        <v>14.29</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5599,34 +5599,34 @@
         <v>42</v>
       </c>
       <c r="B139" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C139" t="s">
         <v>111</v>
       </c>
       <c r="D139">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E139">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F139">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G139">
-        <v>73.08</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H139">
-        <v>26.92</v>
+        <v>14.29</v>
       </c>
       <c r="I139">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="J139">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K139">
-        <v>26.92</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5634,34 +5634,34 @@
         <v>42</v>
       </c>
       <c r="B140" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C140" t="s">
         <v>111</v>
       </c>
       <c r="D140">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E140">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F140">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G140">
-        <v>78.26000000000001</v>
+        <v>73.08</v>
       </c>
       <c r="H140">
-        <v>21.74</v>
+        <v>26.92</v>
       </c>
       <c r="I140">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J140">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K140">
-        <v>21.74</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5669,34 +5669,34 @@
         <v>42</v>
       </c>
       <c r="B141" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C141" t="s">
         <v>111</v>
       </c>
       <c r="D141">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E141">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F141">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G141">
-        <v>65.63</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="H141">
-        <v>34.38</v>
+        <v>21.74</v>
       </c>
       <c r="I141">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J141">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K141">
-        <v>34.38</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5704,69 +5704,69 @@
         <v>42</v>
       </c>
       <c r="B142" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C142" t="s">
         <v>111</v>
       </c>
       <c r="D142">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E142">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F142">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G142">
-        <v>88.23999999999999</v>
+        <v>65.63</v>
       </c>
       <c r="H142">
-        <v>11.76</v>
+        <v>34.38</v>
       </c>
       <c r="I142">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J142">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K142">
-        <v>11.76</v>
+        <v>34.38</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B143" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C143" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D143">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E143">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F143">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G143">
-        <v>77.5</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="H143">
-        <v>22.5</v>
+        <v>11.76</v>
       </c>
       <c r="I143">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J143">
         <v>4</v>
       </c>
       <c r="K143">
-        <v>10</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5774,34 +5774,34 @@
         <v>43</v>
       </c>
       <c r="B144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C144" t="s">
         <v>94</v>
       </c>
       <c r="D144">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E144">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G144">
-        <v>95.45</v>
+        <v>77.5</v>
       </c>
       <c r="H144">
-        <v>4.55</v>
+        <v>22.5</v>
       </c>
       <c r="I144">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5809,34 +5809,34 @@
         <v>43</v>
       </c>
       <c r="B145" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C145" t="s">
         <v>94</v>
       </c>
       <c r="D145">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E145">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F145">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G145">
-        <v>88.37</v>
+        <v>95.45</v>
       </c>
       <c r="H145">
-        <v>11.63</v>
+        <v>4.55</v>
       </c>
       <c r="I145">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="J145">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K145">
-        <v>11.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5844,34 +5844,34 @@
         <v>43</v>
       </c>
       <c r="B146" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C146" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D146">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E146">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F146">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G146">
-        <v>86.36</v>
+        <v>88.37</v>
       </c>
       <c r="H146">
-        <v>13.64</v>
+        <v>11.63</v>
       </c>
       <c r="I146">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="J146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K146">
-        <v>13.64</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5879,34 +5879,34 @@
         <v>43</v>
       </c>
       <c r="B147" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C147" t="s">
         <v>117</v>
       </c>
       <c r="D147">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E147">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F147">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G147">
-        <v>84.20999999999999</v>
+        <v>86.36</v>
       </c>
       <c r="H147">
-        <v>15.79</v>
+        <v>13.64</v>
       </c>
       <c r="I147">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J147">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K147">
-        <v>15.79</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5914,69 +5914,69 @@
         <v>43</v>
       </c>
       <c r="B148" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C148" t="s">
         <v>117</v>
       </c>
       <c r="D148">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E148">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F148">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G148">
-        <v>80</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="H148">
-        <v>20</v>
+        <v>15.79</v>
       </c>
       <c r="I148">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J148">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K148">
-        <v>20</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B149" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C149" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D149">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E149">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F149">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G149">
-        <v>34.78</v>
+        <v>80</v>
       </c>
       <c r="H149">
-        <v>65.22</v>
+        <v>20</v>
       </c>
       <c r="I149">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="J149">
         <v>7</v>
       </c>
       <c r="K149">
-        <v>30.43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5984,34 +5984,34 @@
         <v>44</v>
       </c>
       <c r="B150" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C150" t="s">
         <v>118</v>
       </c>
       <c r="D150">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E150">
+        <v>8</v>
+      </c>
+      <c r="F150">
         <v>15</v>
       </c>
-      <c r="F150">
-        <v>16</v>
-      </c>
       <c r="G150">
-        <v>48.39</v>
+        <v>34.78</v>
       </c>
       <c r="H150">
-        <v>51.61</v>
+        <v>65.22</v>
       </c>
       <c r="I150">
         <v>6.2</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K150">
-        <v>3.23</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -6019,34 +6019,34 @@
         <v>44</v>
       </c>
       <c r="B151" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C151" t="s">
         <v>118</v>
       </c>
       <c r="D151">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E151">
+        <v>15</v>
+      </c>
+      <c r="F151">
         <v>16</v>
       </c>
-      <c r="F151">
-        <v>22</v>
-      </c>
       <c r="G151">
-        <v>42.11</v>
+        <v>48.39</v>
       </c>
       <c r="H151">
-        <v>57.89</v>
+        <v>51.61</v>
       </c>
       <c r="I151">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J151">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K151">
-        <v>42.11</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -6054,34 +6054,34 @@
         <v>44</v>
       </c>
       <c r="B152" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C152" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D152">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E152">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F152">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G152">
-        <v>62.16</v>
+        <v>42.11</v>
       </c>
       <c r="H152">
-        <v>37.84</v>
+        <v>57.89</v>
       </c>
       <c r="I152">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="J152">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K152">
-        <v>10.81</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -6089,69 +6089,69 @@
         <v>44</v>
       </c>
       <c r="B153" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C153" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D153">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E153">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F153">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G153">
-        <v>39.39</v>
+        <v>62.16</v>
       </c>
       <c r="H153">
-        <v>60.61</v>
+        <v>37.84</v>
       </c>
       <c r="I153">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="J153">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K153">
-        <v>39.39</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B154" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C154" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D154">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E154">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F154">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G154">
-        <v>52.78</v>
+        <v>39.39</v>
       </c>
       <c r="H154">
-        <v>47.22</v>
+        <v>60.61</v>
       </c>
       <c r="I154">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J154">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K154">
-        <v>47.22</v>
+        <v>39.39</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -6159,34 +6159,34 @@
         <v>45</v>
       </c>
       <c r="B155" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C155" t="s">
         <v>108</v>
       </c>
       <c r="D155">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E155">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F155">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G155">
-        <v>87.18000000000001</v>
+        <v>52.78</v>
       </c>
       <c r="H155">
-        <v>12.82</v>
+        <v>47.22</v>
       </c>
       <c r="I155">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -6194,34 +6194,34 @@
         <v>45</v>
       </c>
       <c r="B156" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C156" t="s">
         <v>108</v>
       </c>
       <c r="D156">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E156">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G156">
-        <v>88.89</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="H156">
-        <v>11.11</v>
+        <v>12.82</v>
       </c>
       <c r="I156">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="J156">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K156">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -6229,69 +6229,69 @@
         <v>45</v>
       </c>
       <c r="B157" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C157" t="s">
         <v>108</v>
       </c>
       <c r="D157">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E157">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F157">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G157">
-        <v>48.48</v>
+        <v>88.89</v>
       </c>
       <c r="H157">
-        <v>51.52</v>
+        <v>11.11</v>
       </c>
       <c r="I157">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="J157">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K157">
-        <v>51.52</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B158" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C158" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D158">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E158">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G158">
-        <v>100</v>
+        <v>48.48</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>51.52</v>
       </c>
       <c r="I158">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K158">
-        <v>0</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -6299,16 +6299,16 @@
         <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C159" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D159">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E159">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="I159">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -6331,37 +6331,37 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B160" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C160" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D160">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E160">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H160">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="J160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K160">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6369,34 +6369,34 @@
         <v>47</v>
       </c>
       <c r="B161" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D161">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E161">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F161">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G161">
-        <v>63.64</v>
+        <v>80</v>
       </c>
       <c r="H161">
-        <v>36.36</v>
+        <v>20</v>
       </c>
       <c r="I161">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J161">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K161">
-        <v>36.36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6404,69 +6404,69 @@
         <v>47</v>
       </c>
       <c r="B162" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D162">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E162">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F162">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G162">
-        <v>80.77</v>
+        <v>63.64</v>
       </c>
       <c r="H162">
-        <v>19.23</v>
+        <v>36.36</v>
       </c>
       <c r="I162">
         <v>6.6</v>
       </c>
       <c r="J162">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K162">
-        <v>19.23</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B163" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C163" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D163">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E163">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F163">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G163">
-        <v>33.33</v>
+        <v>80.77</v>
       </c>
       <c r="H163">
-        <v>66.67</v>
+        <v>19.23</v>
       </c>
       <c r="I163">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="J163">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="K163">
-        <v>66.67</v>
+        <v>19.23</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6474,34 +6474,34 @@
         <v>48</v>
       </c>
       <c r="B164" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C164" t="s">
         <v>124</v>
       </c>
       <c r="D164">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E164">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F164">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G164">
-        <v>69.23</v>
+        <v>33.33</v>
       </c>
       <c r="H164">
-        <v>30.77</v>
+        <v>66.67</v>
       </c>
       <c r="I164">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="J164">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K164">
-        <v>30.77</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6509,34 +6509,34 @@
         <v>48</v>
       </c>
       <c r="B165" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C165" t="s">
         <v>124</v>
       </c>
       <c r="D165">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E165">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F165">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G165">
-        <v>52.78</v>
+        <v>69.23</v>
       </c>
       <c r="H165">
-        <v>47.22</v>
+        <v>30.77</v>
       </c>
       <c r="I165">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="J165">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K165">
-        <v>47.22</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6544,69 +6544,69 @@
         <v>48</v>
       </c>
       <c r="B166" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C166" t="s">
         <v>124</v>
       </c>
       <c r="D166">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E166">
+        <v>19</v>
+      </c>
+      <c r="F166">
         <v>17</v>
       </c>
-      <c r="F166">
-        <v>15</v>
-      </c>
       <c r="G166">
-        <v>53.13</v>
+        <v>52.78</v>
       </c>
       <c r="H166">
-        <v>46.88</v>
+        <v>47.22</v>
       </c>
       <c r="I166">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="J166">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K166">
-        <v>46.88</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B167" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C167" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D167">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E167">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F167">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G167">
-        <v>70.97</v>
+        <v>53.13</v>
       </c>
       <c r="H167">
-        <v>29.03</v>
+        <v>46.88</v>
       </c>
       <c r="I167">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K167">
-        <v>0</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6620,22 +6620,22 @@
         <v>115</v>
       </c>
       <c r="D168">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E168">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F168">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G168">
-        <v>80.56</v>
+        <v>70.97</v>
       </c>
       <c r="H168">
-        <v>19.44</v>
+        <v>29.03</v>
       </c>
       <c r="I168">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -6655,28 +6655,28 @@
         <v>115</v>
       </c>
       <c r="D169">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E169">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F169">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G169">
-        <v>79.06999999999999</v>
+        <v>80.56</v>
       </c>
       <c r="H169">
-        <v>20.93</v>
+        <v>19.44</v>
       </c>
       <c r="I169">
         <v>7.5</v>
       </c>
       <c r="J169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K169">
-        <v>4.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6693,25 +6693,25 @@
         <v>43</v>
       </c>
       <c r="E170">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F170">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G170">
-        <v>88.37</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="H170">
-        <v>11.63</v>
+        <v>20.93</v>
       </c>
       <c r="I170">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6725,19 +6725,19 @@
         <v>115</v>
       </c>
       <c r="D171">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E171">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F171">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G171">
-        <v>87.5</v>
+        <v>88.37</v>
       </c>
       <c r="H171">
-        <v>12.5</v>
+        <v>11.63</v>
       </c>
       <c r="I171">
         <v>7.1</v>
@@ -6754,28 +6754,28 @@
         <v>49</v>
       </c>
       <c r="B172" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C172" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D172">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E172">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F172">
         <v>3</v>
       </c>
       <c r="G172">
-        <v>88.45999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="H172">
-        <v>11.54</v>
+        <v>12.5</v>
       </c>
       <c r="I172">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -6786,37 +6786,37 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B173" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C173" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D173">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E173">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F173">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G173">
-        <v>67.44</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="H173">
-        <v>32.56</v>
+        <v>11.54</v>
       </c>
       <c r="I173">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="J173">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K173">
-        <v>32.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6824,69 +6824,69 @@
         <v>50</v>
       </c>
       <c r="B174" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C174" t="s">
         <v>102</v>
       </c>
       <c r="D174">
+        <v>43</v>
+      </c>
+      <c r="E174">
         <v>29</v>
       </c>
-      <c r="E174">
-        <v>20</v>
-      </c>
       <c r="F174">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G174">
-        <v>68.97</v>
+        <v>67.44</v>
       </c>
       <c r="H174">
-        <v>31.03</v>
+        <v>32.56</v>
       </c>
       <c r="I174">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="J174">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K174">
-        <v>31.03</v>
+        <v>32.56</v>
       </c>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B175" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C175" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D175">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E175">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F175">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G175">
-        <v>82.34999999999999</v>
+        <v>68.97</v>
       </c>
       <c r="H175">
-        <v>17.65</v>
+        <v>31.03</v>
       </c>
       <c r="I175">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="J175">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K175">
-        <v>17.65</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6903,25 +6903,25 @@
         <v>40</v>
       </c>
       <c r="E176">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F176">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G176">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H176">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I176">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J176">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K176">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -7209,7 +7209,7 @@
         <v>56</v>
       </c>
       <c r="B185" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C185" t="s">
         <v>102</v>
@@ -7244,7 +7244,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C186" t="s">
         <v>102</v>
@@ -7524,7 +7524,7 @@
         <v>58</v>
       </c>
       <c r="B194" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C194" t="s">
         <v>115</v>
@@ -7559,34 +7559,34 @@
         <v>58</v>
       </c>
       <c r="B195" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C195" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D195">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E195">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F195">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G195">
-        <v>44.12</v>
+        <v>57.58</v>
       </c>
       <c r="H195">
-        <v>55.88</v>
+        <v>42.42</v>
       </c>
       <c r="I195">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J195">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K195">
-        <v>55.88</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7594,69 +7594,69 @@
         <v>58</v>
       </c>
       <c r="B196" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C196" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D196">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E196">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F196">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G196">
-        <v>57.58</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="H196">
-        <v>42.42</v>
+        <v>30.43</v>
       </c>
       <c r="I196">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="J196">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K196">
-        <v>42.42</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B197" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C197" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D197">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E197">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F197">
         <v>7</v>
       </c>
       <c r="G197">
-        <v>69.56999999999999</v>
+        <v>80</v>
       </c>
       <c r="H197">
-        <v>30.43</v>
+        <v>20</v>
       </c>
       <c r="I197">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J197">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K197">
-        <v>30.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7664,28 +7664,28 @@
         <v>59</v>
       </c>
       <c r="B198" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C198" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D198">
         <v>35</v>
       </c>
       <c r="E198">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F198">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G198">
-        <v>80</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="H198">
-        <v>20</v>
+        <v>8.57</v>
       </c>
       <c r="I198">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -7699,28 +7699,28 @@
         <v>59</v>
       </c>
       <c r="B199" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C199" t="s">
         <v>125</v>
       </c>
       <c r="D199">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E199">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F199">
         <v>3</v>
       </c>
       <c r="G199">
-        <v>91.43000000000001</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="H199">
-        <v>8.57</v>
+        <v>8.82</v>
       </c>
       <c r="I199">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J199">
         <v>0</v>
@@ -7731,31 +7731,31 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B200" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C200" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D200">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E200">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F200">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G200">
-        <v>91.18000000000001</v>
+        <v>84.62</v>
       </c>
       <c r="H200">
-        <v>8.82</v>
+        <v>15.38</v>
       </c>
       <c r="I200">
-        <v>8.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -7769,34 +7769,34 @@
         <v>60</v>
       </c>
       <c r="B201" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C201" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D201">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E201">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F201">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G201">
-        <v>84.62</v>
+        <v>62.86</v>
       </c>
       <c r="H201">
-        <v>15.38</v>
+        <v>37.14</v>
       </c>
       <c r="I201">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201">
-        <v>0</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7804,68 +7804,33 @@
         <v>60</v>
       </c>
       <c r="B202" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C202" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D202">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E202">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F202">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G202">
-        <v>62.86</v>
+        <v>97.06</v>
       </c>
       <c r="H202">
-        <v>37.14</v>
+        <v>2.94</v>
       </c>
       <c r="I202">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J202">
         <v>1</v>
       </c>
       <c r="K202">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203" t="s">
-        <v>60</v>
-      </c>
-      <c r="B203" t="s">
-        <v>85</v>
-      </c>
-      <c r="C203" t="s">
-        <v>113</v>
-      </c>
-      <c r="D203">
-        <v>34</v>
-      </c>
-      <c r="E203">
-        <v>33</v>
-      </c>
-      <c r="F203">
-        <v>1</v>
-      </c>
-      <c r="G203">
-        <v>97.06</v>
-      </c>
-      <c r="H203">
-        <v>2.94</v>
-      </c>
-      <c r="I203">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J203">
-        <v>1</v>
-      </c>
-      <c r="K203">
         <v>2.94</v>
       </c>
     </row>
